--- a/inputdata/Automation Testcases.xlsx
+++ b/inputdata/Automation Testcases.xlsx
@@ -23,7 +23,6 @@
     <definedName name="TC_BE_020">'[1]Back-End'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A25:F27"/>
 </workbook>
 </file>
 
@@ -658,7 +657,7 @@
     <t>Clear cookies by name</t>
   </si>
   <si>
-    <t>Edge</t>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1547,7 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:6" ht="409.6">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="409.6">
+    <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.6">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1603,49 +1602,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.6">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="409.6">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="409.6">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="409.6">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="409.6">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="409.6">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="409.6">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="409.6">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1690,7 +1689,7 @@
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="32" t="s">
         <v>193</v>
       </c>
@@ -1704,7 +1703,7 @@
       </c>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="29" t="s">
@@ -1720,7 +1719,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>194</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>197</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>196</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1784,7 +1783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1796,7 +1795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1808,7 +1807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customFormat="1">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1820,7 +1819,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customFormat="1">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1832,7 +1831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customFormat="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1844,7 +1843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1856,7 +1855,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1868,7 +1867,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" customFormat="1">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1880,7 +1879,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customFormat="1">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1892,7 +1891,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1904,7 +1903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1916,7 +1915,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1928,7 +1927,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1940,7 +1939,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1952,7 +1951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" customFormat="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1964,7 +1963,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:7" customFormat="1">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1976,7 +1975,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:7" customFormat="1">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1988,7 +1987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2000,7 +1999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2012,7 +2011,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:7" customFormat="1">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2024,7 +2023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:7" customFormat="1">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2036,7 +2035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:7" customFormat="1">
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2048,7 +2047,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:7" customFormat="1">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2060,7 +2059,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:7" customFormat="1">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2072,7 +2071,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2084,7 +2083,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" ht="60">
+    <row r="32" spans="1:6" ht="60">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2096,7 +2095,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:7" customFormat="1">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2108,7 +2107,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:7" customFormat="1">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2120,7 +2119,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:7" customFormat="1">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2132,7 +2131,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:7" customFormat="1">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2144,7 +2143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:7" customFormat="1">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="30"/>
@@ -2152,21 +2151,21 @@
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
     </row>
-    <row r="38" spans="1:7" customFormat="1">
+    <row r="38" spans="1:6">
       <c r="B38" s="30"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:7" customFormat="1">
+    <row r="39" spans="1:6">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:7" customFormat="1">
+    <row r="40" spans="1:6">
       <c r="B40" s="4"/>
     </row>
   </sheetData>
@@ -2811,7 +2810,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="409.6">
+    <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2875,7 +2874,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="409.6">
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2940,7 +2939,7 @@
       </c>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" ht="409.6">
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2973,7 +2972,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="409.6">
+    <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3006,7 +3005,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="409.6">
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3037,7 +3036,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="409.6">
+    <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3100,7 +3099,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="409.6">
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3333,7 +3332,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1"/>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="409.6">
+    <row r="8" spans="1:20" s="2" customFormat="1">
       <c r="G8" s="36" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3410,7 @@
       </c>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="409.6">
+    <row r="10" spans="1:20" s="2" customFormat="1">
       <c r="A10" s="17" t="s">
         <v>106</v>
       </c>
@@ -3504,7 +3503,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="409.6">
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3533,7 +3532,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="409.6">
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3552,7 +3551,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="409.6">
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3571,7 +3570,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="409.6">
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3590,7 +3589,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="8:10" ht="409.6">
+    <row r="17" spans="8:10">
       <c r="H17" s="26"/>
       <c r="I17" s="2"/>
       <c r="J17" s="26"/>
@@ -3621,7 +3620,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView topLeftCell="G20" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -4147,7 +4146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="8:13" ht="409.6">
+    <row r="22" spans="8:13">
       <c r="H22" s="2" t="s">
         <v>146</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="8:13" ht="409.6">
+    <row r="23" spans="8:13">
       <c r="H23" s="2" t="s">
         <v>145</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="8:13" ht="409.6">
+    <row r="24" spans="8:13">
       <c r="H24" s="2" t="s">
         <v>126</v>
       </c>

--- a/inputdata/Automation Testcases.xlsx
+++ b/inputdata/Automation Testcases.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="2955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="10635" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="Guideline" sheetId="5" r:id="rId2"/>
     <sheet name="Config" sheetId="4" r:id="rId3"/>
     <sheet name="LOGIN" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="PRESENTATION" sheetId="2" r:id="rId6"/>
+    <sheet name="PRESENTATION" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">LOGIN!$A$9:$S$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">LOGIN!$A$9:$S$32</definedName>
     <definedName name="TC_BE_006">'[1]Back-End'!#REF!</definedName>
     <definedName name="TC_BE_020">'[1]Back-End'!#REF!</definedName>
   </definedNames>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -233,12 +232,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>assertText</t>
-  </si>
-  <si>
-    <t>assertTitle</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
@@ -264,9 +257,6 @@
   </si>
   <si>
     <t>selectByText</t>
-  </si>
-  <si>
-    <t>selectByValue</t>
   </si>
   <si>
     <t>verifyDropdownSelectedText</t>
@@ -477,9 +467,6 @@
     <t>Click on [Browser] button to upload image</t>
   </si>
   <si>
-    <t>selectImage</t>
-  </si>
-  <si>
     <t>Wait for uploading</t>
   </si>
   <si>
@@ -506,15 +493,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>Assert between text values</t>
-  </si>
-  <si>
-    <t>Assert page title</t>
-  </si>
-  <si>
     <t>Back to previous page. Like clicking on [Back] button on browser task bar</t>
   </si>
   <si>
@@ -602,31 +580,13 @@
     <t>SUNNY.png</t>
   </si>
   <si>
-    <t>Open page</t>
-  </si>
-  <si>
     <t>verifyListValue</t>
-  </si>
-  <si>
-    <t>Get list</t>
-  </si>
-  <si>
-    <t>http://www.vietjetair.com/Sites/Web/vi-VN/Home</t>
-  </si>
-  <si>
-    <t>id=ctl00_UcHeaderV31_DrLang</t>
-  </si>
-  <si>
-    <t>Quit</t>
   </si>
   <si>
     <t>Verify if returned values list are matched with expectation. 
 If expected list is more than 1 element, Addd '@' char before the second element and elements are separated by comma (Ex: Jan,@Feb,@Mar,@Apr)</t>
   </si>
   <si>
-    <t>Tiếng Việt,@English,@ภาษาไทย,@한국어 (o),@简体中文,@繁體中文</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
@@ -657,7 +617,43 @@
     <t>Clear cookies by name</t>
   </si>
   <si>
+    <t>storeText</t>
+  </si>
+  <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Store [Presenation List] page title</t>
+  </si>
+  <si>
+    <t>{btnSubmit}</t>
+  </si>
+  <si>
+    <t>storeVal</t>
+  </si>
+  <si>
+    <t>selectByVal</t>
+  </si>
+  <si>
+    <t>get user name value</t>
+  </si>
+  <si>
+    <t>{username}</t>
+  </si>
+  <si>
+    <t>http://localhost:9080/cms/</t>
+  </si>
+  <si>
+    <t>endTesting</t>
+  </si>
+  <si>
+    <t>startTesting</t>
+  </si>
+  <si>
+    <t>Start test</t>
+  </si>
+  <si>
+    <t>selectFile</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1691,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="32" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="31" t="s">
@@ -1721,10 +1717,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>62</v>
@@ -1736,15 +1732,15 @@
         <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1752,23 +1748,23 @@
         <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>156</v>
+      <c r="E5" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1776,11 +1772,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>157</v>
+      <c r="E6" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1788,11 +1784,11 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>200</v>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1800,11 +1796,11 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>202</v>
+      <c r="E8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1813,10 +1809,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1825,11 +1821,9 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
@@ -1837,10 +1831,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1849,10 +1843,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1861,10 +1855,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1873,10 +1867,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1885,10 +1879,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1897,10 +1891,10 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1909,10 +1903,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1921,10 +1915,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1933,10 +1927,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1945,10 +1939,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1957,10 +1951,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1969,10 +1963,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1984,7 +1978,7 @@
         <v>75</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1993,10 +1987,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2005,10 +1999,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2017,10 +2011,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2029,11 +2023,9 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
@@ -2041,11 +2033,9 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4"/>
@@ -2053,11 +2043,9 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4"/>
@@ -2065,10 +2053,10 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2077,22 +2065,22 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>191</v>
+        <v>131</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2101,22 +2089,22 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2125,10 +2113,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2137,36 +2125,72 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="30"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
+      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6">
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="30"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2195,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2281,24 +2305,24 @@
       <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="21">
-        <f>COUNTIF($L$11:$L$594,"PASSED")/COUNTA($L$11:$L$594)</f>
-        <v>1</v>
+      <c r="G4" s="21" t="e">
+        <f>COUNTIF($L$11:$L$597,"PASSED")/COUNTA($L$11:$L$597)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" s="21">
-        <f>COUNTIF($N$11:N$594,"Pass")</f>
+        <f>COUNTIF($N$11:N$596,"Pass")</f>
         <v>0</v>
       </c>
       <c r="O4" s="21">
-        <f>COUNTIF($O$11:O$594,"Pass")</f>
+        <f>COUNTIF($O$11:O$596,"Pass")</f>
         <v>0</v>
       </c>
       <c r="P4" s="21">
-        <f>COUNTIF($P$11:P$594,"Pass")</f>
+        <f>COUNTIF($P$11:P$596,"Pass")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="21">
-        <f>COUNTIF($Q$11:Q$594,"Pass")</f>
+        <f>COUNTIF($Q$11:Q$596,"Pass")</f>
         <v>0</v>
       </c>
     </row>
@@ -2318,24 +2342,24 @@
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21">
-        <f>COUNTIF($L$11:$L$594,"FAILED")/COUNTA($L$11:$L$594)</f>
+      <c r="G5" s="21" t="e">
+        <f>COUNTIF($L$11:$L$597,"FAILED")/COUNTA($L$11:$L$597)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="21">
+        <f>COUNTIF($N$11:N$596,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="N5" s="21">
-        <f>COUNTIF($N$11:N$594,"Fail")</f>
+      <c r="O5" s="21">
+        <f>COUNTIF($O$11:$O$596,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="21">
-        <f>COUNTIF($O$11:$O$594,"Fail")</f>
+      <c r="P5" s="21">
+        <f>COUNTIF($P$11:$P$596,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="P5" s="21">
-        <f>COUNTIF($P$11:$P$594,"Fail")</f>
-        <v>0</v>
-      </c>
       <c r="Q5" s="21">
-        <f>COUNTIF($Q$11:$Q$594,"Fail")</f>
+        <f>COUNTIF($Q$11:$Q$596,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -2347,30 +2371,30 @@
         <v>21</v>
       </c>
       <c r="D6" s="21">
-        <f>COUNTIF($G$11:$G$594,"Yes")/COUNTA($A$11:$A$594)</f>
+        <f>COUNTIF($G$11:$G$596,"Yes")/COUNTA($A$11:$A$596)</f>
         <v>0.75</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="21">
-        <f>COUNTIF($L$12:$L$594,"Not Test")/COUNTA($L$11:$L$594)</f>
+      <c r="G6" s="21" t="e">
+        <f>COUNTIF($L$12:$L$597,"Not Test")/COUNTA($L$11:$L$597)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="21">
+        <f>COUNTIF($N$11:N$596,"Not Test")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="21">
-        <f>COUNTIF($N$11:N$594,"Not Test")</f>
+      <c r="O6" s="21">
+        <f>COUNTIF($H$11:$H$596,"Not Test")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="21">
-        <f>COUNTIF($H$11:$H$594,"Not Test")</f>
+      <c r="P6" s="21">
+        <f>COUNTIF($P$11:$P$596,"Not Test")</f>
         <v>0</v>
       </c>
-      <c r="P6" s="21">
-        <f>COUNTIF($P$11:$P$594,"Not Test")</f>
-        <v>0</v>
-      </c>
       <c r="Q6" s="21">
-        <f>COUNTIF($Q$11:$Q$594,"Not Test")</f>
+        <f>COUNTIF($Q$11:$Q$596,"Not Test")</f>
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2479,7 @@
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1">
       <c r="A10" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2479,35 +2503,33 @@
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" ht="75">
       <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>153</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +2544,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>55</v>
@@ -2532,9 +2554,6 @@
       </c>
       <c r="K12" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>153</v>
       </c>
       <c r="M12" t="s">
         <v>7</v>
@@ -2555,19 +2574,16 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>153</v>
+        <v>57</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="M13" t="s">
         <v>7</v>
@@ -2588,17 +2604,16 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" t="s">
-        <v>153</v>
+        <v>58</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
@@ -2610,7 +2625,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="30">
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2619,20 +2634,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>153</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K15" s="4"/>
       <c r="M15" t="s">
         <v>7</v>
       </c>
@@ -2652,15 +2662,16 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" t="s">
-        <v>153</v>
+        <v>190</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="M16" t="s">
         <v>7</v>
@@ -2672,28 +2683,29 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="60">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
+    <row r="17" spans="1:20" ht="30">
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2701,39 +2713,22 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="75">
-      <c r="A18" s="2" t="s">
-        <v>149</v>
-      </c>
+    <row r="18" spans="1:20">
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>82</v>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="M18" t="s">
         <v>7</v>
       </c>
@@ -2744,32 +2739,28 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:20" ht="60">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" t="s">
-        <v>7</v>
-      </c>
+      <c r="F19" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2777,29 +2768,36 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:20" ht="75">
+      <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>85</v>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" t="s">
-        <v>153</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="M20" t="s">
         <v>7</v>
       </c>
@@ -2819,17 +2817,16 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" t="s">
-        <v>153</v>
+        <v>57</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="M21" t="s">
         <v>7</v>
@@ -2841,7 +2838,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="30">
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2849,20 +2846,17 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="27" t="s">
-        <v>101</v>
+      <c r="H22" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" t="s">
-        <v>153</v>
       </c>
       <c r="M22" t="s">
         <v>7</v>
@@ -2883,16 +2877,15 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="K23" s="4"/>
-      <c r="L23" t="s">
-        <v>153</v>
-      </c>
       <c r="M23" t="s">
         <v>7</v>
       </c>
@@ -2903,41 +2896,35 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="60">
-      <c r="A24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>82</v>
+    <row r="24" spans="1:20" ht="30">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" t="s">
-        <v>153</v>
+        <v>52</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="M24" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="24"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="4"/>
@@ -2947,21 +2934,12 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="H25" s="27"/>
       <c r="I25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" t="s">
-        <v>153</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
       <c r="M25" t="s">
         <v>7</v>
       </c>
@@ -2972,38 +2950,39 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>85</v>
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="60">
+      <c r="A26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" t="s">
-        <v>153</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26"/>
       <c r="M26" t="s">
         <v>7</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="T26" s="24"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4"/>
@@ -3014,17 +2993,16 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" t="s">
-        <v>153</v>
+        <v>57</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="M27" t="s">
         <v>7</v>
@@ -3045,16 +3023,16 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" t="s">
-        <v>153</v>
+        <v>55</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="M28" t="s">
         <v>7</v>
@@ -3066,7 +3044,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="30">
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3075,20 +3053,15 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" t="s">
-        <v>153</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="M29" t="s">
         <v>7</v>
       </c>
@@ -3108,15 +3081,13 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" t="s">
-        <v>153</v>
+        <v>59</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="M30" t="s">
         <v>7</v>
@@ -3128,19 +3099,80 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
+    <row r="31" spans="1:20" ht="30">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="13:13">
+      <c r="M33" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:S30"/>
+  <autoFilter ref="A9:S32"/>
   <mergeCells count="2">
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="N8:Q8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J11" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
-    <hyperlink ref="J18" r:id="rId3"/>
-    <hyperlink ref="K20" r:id="rId4"/>
-    <hyperlink ref="J24" r:id="rId5"/>
-    <hyperlink ref="K26" r:id="rId6"/>
+    <hyperlink ref="K14" r:id="rId2"/>
+    <hyperlink ref="J20" r:id="rId3"/>
+    <hyperlink ref="K22" r:id="rId4"/>
+    <hyperlink ref="J26" r:id="rId5"/>
+    <hyperlink ref="K28" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -3149,9 +3181,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Config!$E$3:$E$185</xm:f>
+            <xm:f>Config!$E$3:$E$187</xm:f>
           </x14:formula1>
-          <xm:sqref>I11:I30</xm:sqref>
+          <xm:sqref>I11:I32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3161,21 +3193,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="25.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="10" max="10" width="25.7109375" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="11" max="11" width="19.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="12" max="12" width="14.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
+    <col min="15" max="17" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1">
+    <row r="1" spans="1:19" s="18" customFormat="1">
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3184,7 +3229,7 @@
       <c r="L1" s="2"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:20" s="18" customFormat="1">
+    <row r="2" spans="1:19" s="18" customFormat="1">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3193,7 +3238,7 @@
       <c r="L2" s="2"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="30">
+    <row r="3" spans="1:19">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" ht="30">
+    <row r="4" spans="1:19">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -3239,27 +3284,27 @@
         <v>9</v>
       </c>
       <c r="G4" s="21">
-        <f>COUNTIF($L$11:$L$595,"PASSED")/COUNTA($L$11:$L$595)</f>
+        <f>COUNTIF($L$11:$L$599,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <f>COUNTIF($N$11:N$599,"Pass")</f>
         <v>1</v>
       </c>
-      <c r="N4" s="21">
-        <f>COUNTIF($N$11:N$595,"Pass")</f>
+      <c r="O4" s="21">
+        <f>COUNTIF($O$11:O$599,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="21">
-        <f>COUNTIF($O$11:O$595,"Pass")</f>
+      <c r="P4" s="21">
+        <f>COUNTIF($P$11:P$599,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="P4" s="21">
-        <f>COUNTIF($P$11:P$595,"Pass")</f>
+      <c r="Q4" s="21">
+        <f>COUNTIF($Q$11:Q$599,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="21">
-        <f>COUNTIF($Q$11:Q$595,"Pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" ht="30">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
@@ -3276,27 +3321,27 @@
         <v>10</v>
       </c>
       <c r="G5" s="21">
-        <f>COUNTIF($L$11:$L$595,"FAILED")/COUNTA($L$11:$L$595)</f>
+        <f>COUNTIF($L$11:$L$599,"Fail")</f>
         <v>0</v>
       </c>
       <c r="N5" s="21">
-        <f>COUNTIF($N$11:N$595,"Fail")</f>
+        <f>COUNTIF($N$11:N$599,"Fail")</f>
         <v>0</v>
       </c>
       <c r="O5" s="21">
-        <f>COUNTIF($O$11:$O$595,"Fail")</f>
+        <f>COUNTIF($O$11:$O$599,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="21">
+        <f>COUNTIF($P$11:$P$599,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="P5" s="21">
-        <f>COUNTIF($P$11:$P$595,"Fail")</f>
+      <c r="Q5" s="21">
+        <f>COUNTIF($Q$11:$Q$599,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="21">
-        <f>COUNTIF($Q$11:$Q$595,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="60">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
@@ -3304,35 +3349,34 @@
         <v>21</v>
       </c>
       <c r="D6" s="21">
-        <f>COUNTIF($G$11:$G$595,"Yes")/COUNTA($A$11:$A$595)</f>
+        <f>COUNTIF($G$11:$G$599,"Yes")/COUNTA($A$11:$A$599)</f>
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="21">
-        <f>COUNTIF($L$12:$L$595,"Not Test")/COUNTA($L$11:$L$595)</f>
+        <f>COUNTIF($L$13:$L$599,"Not Test")</f>
         <v>0</v>
       </c>
       <c r="N6" s="21">
-        <f>COUNTIF($N$11:N$595,"Not Test")</f>
+        <f>COUNTIF($N$11:N$599,"Not Test")</f>
         <v>0</v>
       </c>
       <c r="O6" s="21">
-        <f>COUNTIF($H$11:$H$595,"Not Test")</f>
+        <f>COUNTIF($H$12:$H$600,"Not Test")</f>
         <v>0</v>
       </c>
       <c r="P6" s="21">
-        <f>COUNTIF($P$11:$P$595,"Not Test")</f>
-        <v>0</v>
+        <f>COUNTIF($P$11:$P$599,"Not Test")</f>
+        <v>1</v>
       </c>
       <c r="Q6" s="21">
-        <f>COUNTIF($Q$11:$Q$595,"Not Test")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1"/>
-    <row r="8" spans="1:20" s="2" customFormat="1">
+        <f>COUNTIF($Q$11:$Q$599,"Not Test")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="G8" s="36" t="s">
         <v>40</v>
       </c>
@@ -3348,9 +3392,8 @@
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
-      <c r="T8" s="24"/>
-    </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="60">
+    </row>
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3408,11 +3451,10 @@
       <c r="S9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="24"/>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3432,509 +3474,36 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="24"/>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="240">
-      <c r="A11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>91</v>
+    </row>
+    <row r="11" spans="1:19" ht="105">
+      <c r="A11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M11" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="24"/>
-    </row>
-    <row r="12" spans="1:20" ht="75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="23"/>
-      <c r="L13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="8:10">
-      <c r="H17" s="26"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Config!$E$3:$E$185</xm:f>
-          </x14:formula1>
-          <xm:sqref>I11:I17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="25.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="10" max="10" width="25.7109375" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="12" max="12" width="14.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="14" max="17" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="9.140625" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1">
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:19" s="18" customFormat="1">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="21">
-        <f>COUNTIF($L$11:$L$599,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="21">
-        <f>COUNTIF($N$11:N$599,"Pass")</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="21">
-        <f>COUNTIF($O$11:O$599,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <f>COUNTIF($P$11:P$599,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21">
-        <f>COUNTIF($Q$11:Q$599,"Pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="21">
-        <f>COUNTIF($L$11:$L$599,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <f>COUNTIF($N$11:N$599,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
-        <f>COUNTIF($O$11:$O$599,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="P5" s="21">
-        <f>COUNTIF($P$11:$P$599,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
-        <f>COUNTIF($Q$11:$Q$599,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="21">
-        <f>COUNTIF($G$11:$G$599,"Yes")/COUNTA($A$11:$A$599)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="21">
-        <f>COUNTIF($L$13:$L$599,"Not Test")</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="21">
-        <f>COUNTIF($N$11:N$599,"Not Test")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="21">
-        <f>COUNTIF($H$11:$H$599,"Not Test")</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
-        <f>COUNTIF($P$11:$P$599,"Not Test")</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="21">
-        <f>COUNTIF($Q$11:$Q$599,"Not Test")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="G8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="1:19" ht="30">
-      <c r="A9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" ht="105">
-      <c r="A11" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>153</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L11"/>
       <c r="M11" t="s">
         <v>7</v>
       </c>
@@ -3963,21 +3532,16 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="H12" s="4" t="s">
-        <v>84</v>
+      <c r="H12" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>153</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>7</v>
       </c>
@@ -3985,96 +3549,89 @@
     </row>
     <row r="13" spans="1:19">
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>153</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13"/>
       <c r="M13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" t="s">
-        <v>153</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14"/>
       <c r="M14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="H15" s="2" t="s">
-        <v>114</v>
+      <c r="H15" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" t="s">
-        <v>153</v>
-      </c>
+      <c r="J15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15"/>
       <c r="M15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19">
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" t="s">
-        <v>153</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="L16"/>
       <c r="M16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="8:13">
+    <row r="17" spans="8:13" ht="30">
       <c r="H17" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>153</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L17"/>
       <c r="M17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="8:13" ht="30">
+    <row r="18" spans="8:13">
       <c r="H18" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>59</v>
@@ -4082,118 +3639,131 @@
       <c r="J18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
+      <c r="L18"/>
       <c r="M18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="8:13">
+    <row r="19" spans="8:13" ht="30">
       <c r="H19" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" t="s">
-        <v>153</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L19"/>
       <c r="M19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="8:13">
       <c r="H20" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" t="s">
-        <v>153</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L20"/>
       <c r="M20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="8:13" ht="30">
+    <row r="21" spans="8:13">
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" ht="30">
+      <c r="H22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="8:13">
-      <c r="H22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" t="s">
-        <v>153</v>
-      </c>
+      <c r="J22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22"/>
       <c r="M22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="8:13">
       <c r="H23" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3</v>
-      </c>
-      <c r="L23" t="s">
-        <v>153</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23"/>
       <c r="M23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="8:13">
       <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M24" t="s">
+      <c r="I26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4266,8 +3836,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1"/>
-    <hyperlink ref="K13" r:id="rId2"/>
+    <hyperlink ref="J12" r:id="rId1"/>
+    <hyperlink ref="K14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4276,9 +3846,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Config!$E$3:$E$185</xm:f>
+            <xm:f>Config!$E$3:$E$187</xm:f>
           </x14:formula1>
-          <xm:sqref>I11:I27</xm:sqref>
+          <xm:sqref>I11:I28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inputdata/Automation Testcases.xlsx
+++ b/inputdata/Automation Testcases.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="10635" activeTab="4"/>
+    <workbookView activeTab="2" windowHeight="5955" windowWidth="14940" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="3" r:id="rId1"/>
-    <sheet name="Guideline" sheetId="5" r:id="rId2"/>
-    <sheet name="Config" sheetId="4" r:id="rId3"/>
-    <sheet name="LOGIN" sheetId="6" r:id="rId4"/>
-    <sheet name="PRESENTATION" sheetId="2" r:id="rId5"/>
+    <sheet name="Summary" r:id="rId1" sheetId="3"/>
+    <sheet name="Guideline" r:id="rId2" sheetId="5"/>
+    <sheet name="Config" r:id="rId3" sheetId="4"/>
+    <sheet name="LOGIN" r:id="rId4" sheetId="6" state="hidden"/>
+    <sheet name="PRESENTATION" r:id="rId5" sheetId="2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">LOGIN!$A$9:$S$32</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">LOGIN!$A$9:$S$32</definedName>
     <definedName name="TC_BE_006">'[1]Back-End'!#REF!</definedName>
     <definedName name="TC_BE_020">'[1]Back-End'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A13:F27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +65,6 @@
     <t>Date Tested</t>
   </si>
   <si>
-    <t>http://10.1.2.34:8080/cms/</t>
-  </si>
-  <si>
     <t>Add Presentation</t>
   </si>
   <si>
@@ -214,9 +212,6 @@
     <t>Common Data</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>delay</t>
   </si>
   <si>
@@ -230,6 +225,12 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>assertText</t>
+  </si>
+  <si>
+    <t>assertTitle</t>
   </si>
   <si>
     <t>back</t>
@@ -369,71 +370,12 @@
     <t>Verify [Login] page title</t>
   </si>
   <si>
-    <t>name=add</t>
-  </si>
-  <si>
-    <t>Click on [Add] button</t>
-  </si>
-  <si>
-    <t>xpath=//button[@type='button']</t>
-  </si>
-  <si>
-    <t>Click on [Category] combo-box</t>
-  </si>
-  <si>
-    <t>Select category = Promotions</t>
-  </si>
-  <si>
-    <t>css=label.checkbox</t>
-  </si>
-  <si>
-    <t>Click on [Category] combo-box to collapse</t>
-  </si>
-  <si>
-    <t>Input [Title]</t>
-  </si>
-  <si>
-    <t>id=txtTitle</t>
-  </si>
-  <si>
-    <t>Nissan T-Trail</t>
-  </si>
-  <si>
-    <t>Input [Description]</t>
-  </si>
-  <si>
-    <t>id=txtDesc</t>
-  </si>
-  <si>
-    <t>New version</t>
-  </si>
-  <si>
-    <t>Click on [Cancel] button</t>
-  </si>
-  <si>
-    <t>id=cancel</t>
-  </si>
-  <si>
     <t>PRE_001</t>
   </si>
   <si>
     <t>Cancel adding presentation</t>
   </si>
   <si>
-    <t>1. Login 
-2. Click on [Add] button to add presentation
-3. Select Category
-4. Enter [Title] &amp; [Description]
-5. Click on [Cancel] button</t>
-  </si>
-  <si>
-    <t>Category = Promotion</t>
-  </si>
-  <si>
-    <t>- Presentation is not added
-- Return to [Presentation List] page</t>
-  </si>
-  <si>
     <t>verifyTextContain</t>
   </si>
   <si>
@@ -461,13 +403,7 @@
     <t>isDisable</t>
   </si>
   <si>
-    <t>id=pictureFile</t>
-  </si>
-  <si>
-    <t>Click on [Browser] button to upload image</t>
-  </si>
-  <si>
-    <t>Wait for uploading</t>
+    <t>selectImage</t>
   </si>
   <si>
     <t>Select a image to upload</t>
@@ -493,6 +429,15 @@
     <t>No</t>
   </si>
   <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Assert between text values</t>
+  </si>
+  <si>
+    <t>Assert page title</t>
+  </si>
+  <si>
     <t>Back to previous page. Like clicking on [Back] button on browser task bar</t>
   </si>
   <si>
@@ -575,9 +520,6 @@
   </si>
   <si>
     <t>Verify if current URL address is correct</t>
-  </si>
-  <si>
-    <t>SUNNY.png</t>
   </si>
   <si>
     <t>verifyListValue</t>
@@ -593,18 +535,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Browsers</t>
-  </si>
-  <si>
-    <t>Processor</t>
-  </si>
-  <si>
-    <t>x64</t>
-  </si>
-  <si>
     <t>clearCookies</t>
   </si>
   <si>
@@ -620,15 +550,15 @@
     <t>storeText</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>Store [Presenation List] page title</t>
   </si>
   <si>
     <t>{btnSubmit}</t>
   </si>
   <si>
+    <t>FAILED</t>
+  </si>
+  <si>
     <t>storeVal</t>
   </si>
   <si>
@@ -644,22 +574,168 @@
     <t>http://localhost:9080/cms/</t>
   </si>
   <si>
-    <t>endTesting</t>
-  </si>
-  <si>
-    <t>startTesting</t>
-  </si>
-  <si>
-    <t>Start test</t>
-  </si>
-  <si>
-    <t>selectFile</t>
+    <t>com.google.common.base.VerifyException: Expected [Content Management System] but found [Content Management System (development)]</t>
+  </si>
+  <si>
+    <t>1. Open app
+2. Login with valid username/password
+3. Click Login button</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>id=edt_username</t>
+  </si>
+  <si>
+    <t>id=edt_password</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click [Login]</t>
+  </si>
+  <si>
+    <t>id=btn_login</t>
+  </si>
+  <si>
+    <t>123456aA</t>
+  </si>
+  <si>
+    <t>id=txt_progress_lbl</t>
+  </si>
+  <si>
+    <t>Verify sync process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang đồng bộ... </t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"div.panel-heading"}
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 167 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09'
+System info: host: 'TCSVN00027N', ip: '10.1.5.247', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir12444_9081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: e0a5d287564c6728d84006d5b3184e04
+*** Element info: {Using=css selector, value=div.panel-heading}</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"div.panel-heading"}
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09'
+System info: host: 'TCSVN00027N', ip: '10.1.5.247', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir12444_9081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: e0a5d287564c6728d84006d5b3184e04
+*** Element info: {Using=css selector, value=div.panel-heading}</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 6 milliseconds
+Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09'
+System info: host: 'TCSVN00027N', ip: '10.1.5.247', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir1972_20209}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 37e43032110e722989af21c5da864679
+*** Element info: {Using=name, value=password}</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09'
+System info: host: 'TCSVN00027N', ip: '10.1.5.247', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir1972_20209}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 37e43032110e722989af21c5da864679
+*** Element info: {Using=css selector, value=button.leafButton}</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09'
+System info: host: 'TCSVN00027N', ip: '10.1.5.247', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.27.440174 (e97a722caafc2d3a8b807ee115bfb307f7d2cfd9), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir1972_20209}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, unexpectedAlertBehaviour=}]
+Session ID: 37e43032110e722989af21c5da864679
+*** Element info: {Using=id, value=annotationBox}</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: Not yet implemented. Please help us: http://appium.io/get-involved.html (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 285 milliseconds
+Build info: version: '2.53.1', revision: 'a36b8b1cd5757287168e54b817830adce9b0158d', time: '2016-06-30 19:26:09'
+System info: host: 'TCSVN00027N', ip: '10.1.5.247', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{app=E:\GitHub\SELENIUM-WITH_DATADRIVEN\inputdata\test.apk, appPackage=com.tcsvn.tcmaps, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, deviceName=8431355841485a36, platform=LINUX, desired={app=E:\GitHub\SELENIUM-WITH_DATADRIVEN\inputdata\test.apk, appPackage=com.tcsvn.tcmaps, platformVersion=6.0.1, browserName=, platformName=Android, deviceName=Galaxy Note5}, platformVersion=6.0.1, webStorageEnabled=false, locationContextEnabled=false, browserName=, takesScreenshot=true, javascriptEnabled=true, platformName=Android}]
+Session ID: fcd1c4ad-eb58-4dad-8f40-72585fefc105</t>
+  </si>
+  <si>
+    <t>demo04</t>
+  </si>
+  <si>
+    <t>Wait for a few second</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>OS version</t>
+  </si>
+  <si>
+    <t>Device name</t>
+  </si>
+  <si>
+    <t>App package</t>
+  </si>
+  <si>
+    <t>com.tcsvn.tcmaps</t>
+  </si>
+  <si>
+    <t>Galaxy Note5</t>
+  </si>
+  <si>
+    <t>6.0.1</t>
+  </si>
+  <si>
+    <t>Node path</t>
+  </si>
+  <si>
+    <t>C:/Program Files (x86)/Appium/node.exe</t>
+  </si>
+  <si>
+    <t>C:/Program Files (x86)/Appium/node_modules/appium/bin/appium.js</t>
+  </si>
+  <si>
+    <t>JS path</t>
+  </si>
+  <si>
+    <t>Build name</t>
+  </si>
+  <si>
+    <t>test.apk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -960,99 +1036,99 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="9" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="3" fontId="6" numFmtId="9" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="15">
@@ -1166,7 +1242,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFFF3300"/>
@@ -1238,10 +1314,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1276,7 +1352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,7 +1387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1399,7 +1475,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1408,13 +1484,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1424,7 +1500,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1433,7 +1509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1442,7 +1518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1452,12 +1528,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1488,7 +1564,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1507,7 +1583,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1519,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1528,68 +1604,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1">
+    <row customHeight="1" ht="36.75" r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1"/>
+    <row ht="15.75" r="2" spans="1:6" thickBot="1"/>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row ht="15.75" r="4" spans="1:6" thickBot="1">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1647,14 +1723,14 @@
       <c r="D15" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1663,156 +1739,169 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="66.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="32" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:6">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>12</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>187</v>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row ht="30" r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="E7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row ht="45" r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>152</v>
+      <c r="E8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1821,9 +1910,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
@@ -1831,10 +1922,10 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1843,10 +1934,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1855,10 +1946,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1867,10 +1958,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1879,10 +1970,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1891,10 +1982,10 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1903,10 +1994,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1915,10 +2006,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1927,10 +2018,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1939,10 +2030,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1951,10 +2042,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1963,10 +2054,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1975,10 +2066,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1987,10 +2078,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1999,10 +2090,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2011,10 +2102,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2023,9 +2114,11 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
@@ -2033,7 +2126,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -2043,7 +2136,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -2056,7 +2149,7 @@
         <v>74</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2065,10 +2158,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2077,10 +2170,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2092,19 +2185,19 @@
         <v>77</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60">
+        <v>155</v>
+      </c>
+    </row>
+    <row ht="60" r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2113,10 +2206,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2125,10 +2218,10 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2140,7 +2233,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2149,48 +2242,36 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="B42" s="30"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="4"/>
+      <c r="B42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2198,51 +2279,37 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Android,iOS,Linux,MacOS,Windows"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6">
-      <formula1>"Chrome,Edge,Firefox,IE,Safari"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"x64,x86"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L32"/>
+    <sheetView topLeftCell="I27" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="8" max="8" width="32" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="8" max="8" customWidth="true" width="32.0" collapsed="true" outlineLevel="1"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="10" max="10" customWidth="true" width="25.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="11" max="11" customWidth="true" width="19.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="12" max="13" customWidth="true" width="9.140625" collapsed="true" outlineLevel="1"/>
+    <col min="19" max="19" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1">
+    <row customFormat="1" r="1" s="18" spans="1:20">
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2251,7 +2318,7 @@
       <c r="L1" s="2"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:20" s="18" customFormat="1">
+    <row customFormat="1" r="2" s="18" spans="1:20">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2260,54 +2327,54 @@
       <c r="L2" s="2"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1">
+    <row customFormat="1" r="3" s="2" spans="1:20">
       <c r="A3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="2" spans="1:20">
       <c r="A4" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="21" t="e">
-        <f>COUNTIF($L$11:$L$597,"PASSED")/COUNTA($L$11:$L$597)</f>
-        <v>#DIV/0!</v>
+      <c r="G4" s="21">
+        <f>COUNTIF($L$11:$L$596,"PASSED")/COUNTA($L$11:$L$596)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N4" s="21">
         <f>COUNTIF($N$11:N$596,"Pass")</f>
@@ -2326,25 +2393,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1">
+    <row customFormat="1" r="5" s="2" spans="1:20">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21" t="e">
-        <f>COUNTIF($L$11:$L$597,"FAILED")/COUNTA($L$11:$L$597)</f>
-        <v>#DIV/0!</v>
+      <c r="G5" s="21">
+        <f>COUNTIF($L$11:$L$596,"FAILED")/COUNTA($L$11:$L$596)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N5" s="21">
         <f>COUNTIF($N$11:N$596,"Fail")</f>
@@ -2363,23 +2430,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1">
+    <row customFormat="1" r="6" s="2" spans="1:20">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="21">
         <f>COUNTIF($G$11:$G$596,"Yes")/COUNTA($A$11:$A$596)</f>
         <v>0.75</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="21" t="e">
-        <f>COUNTIF($L$12:$L$597,"Not Test")/COUNTA($L$11:$L$597)</f>
-        <v>#DIV/0!</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="21">
+        <f>COUNTIF($L$12:$L$596,"Not Test")/COUNTA($L$11:$L$596)</f>
+        <v>0</v>
       </c>
       <c r="N6" s="21">
         <f>COUNTIF($N$11:N$596,"Not Test")</f>
@@ -2398,10 +2465,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1"/>
-    <row r="8" spans="1:20" s="2" customFormat="1">
+    <row customFormat="1" r="7" s="2" spans="1:20"/>
+    <row customFormat="1" r="8" s="2" spans="1:20">
       <c r="G8" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -2410,34 +2477,34 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="9" s="2" spans="1:20">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1</v>
@@ -2452,32 +2519,32 @@
         <v>4</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1">
+    <row customFormat="1" r="10" s="2" spans="1:20">
       <c r="A10" s="17" t="s">
         <v>103</v>
       </c>
@@ -2501,7 +2568,7 @@
       <c r="S10" s="17"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="11" s="2" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2518,7 +2585,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>79</v>
@@ -2527,11 +2594,13 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11"/>
+        <v>176</v>
+      </c>
+      <c r="L11" t="s">
+        <v>171</v>
+      </c>
       <c r="M11" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="T11" s="24"/>
     </row>
@@ -2547,13 +2616,16 @@
         <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>56</v>
+      <c r="L12" t="s">
+        <v>129</v>
       </c>
       <c r="M12" t="s">
         <v>7</v>
@@ -2574,16 +2646,19 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>197</v>
+        <v>175</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
       </c>
       <c r="M13" t="s">
         <v>7</v>
@@ -2607,13 +2682,16 @@
         <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>80</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
       </c>
       <c r="M14" t="s">
         <v>7</v>
@@ -2637,12 +2715,15 @@
         <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="K15" s="4"/>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
       <c r="M15" t="s">
         <v>7</v>
       </c>
@@ -2662,19 +2743,22 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>193</v>
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
       </c>
       <c r="M16" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2683,7 +2767,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="30">
+    <row ht="30" r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2695,7 +2779,7 @@
         <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>89</v>
@@ -2703,8 +2787,11 @@
       <c r="K17" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
       <c r="M17" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2725,10 +2812,13 @@
         <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
+      <c r="L18" t="s">
+        <v>129</v>
+      </c>
       <c r="M18" t="s">
         <v>7</v>
       </c>
@@ -2739,23 +2829,23 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="60">
+    <row ht="60" r="19" spans="1:20">
       <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="22" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
@@ -2768,9 +2858,9 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="75">
+    <row ht="75" r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
@@ -2786,7 +2876,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>79</v>
@@ -2795,9 +2885,12 @@
         <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="K20" s="2"/>
+      <c r="L20" t="s">
+        <v>129</v>
+      </c>
       <c r="M20" t="s">
         <v>7</v>
       </c>
@@ -2820,13 +2913,16 @@
         <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>129</v>
       </c>
       <c r="M21" t="s">
         <v>7</v>
@@ -2850,16 +2946,19 @@
         <v>82</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>102</v>
       </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
       <c r="M22" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2880,14 +2979,17 @@
         <v>83</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="K23" s="4"/>
+      <c r="L23" t="s">
+        <v>171</v>
+      </c>
       <c r="M23" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2896,7 +2998,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="30">
+    <row ht="30" r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2908,7 +3010,7 @@
         <v>98</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>99</v>
@@ -2916,8 +3018,11 @@
       <c r="K24" s="27" t="s">
         <v>100</v>
       </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
       <c r="M24" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2934,12 +3039,17 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="27"/>
+      <c r="H25" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" t="s">
+        <v>129</v>
+      </c>
       <c r="M25" t="s">
         <v>7</v>
       </c>
@@ -2950,9 +3060,9 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="26" s="2" spans="1:20">
       <c r="A26" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>104</v>
@@ -2967,7 +3077,7 @@
         <v>106</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>79</v>
@@ -2976,9 +3086,11 @@
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L26"/>
+        <v>176</v>
+      </c>
+      <c r="L26" t="s">
+        <v>129</v>
+      </c>
       <c r="M26" t="s">
         <v>7</v>
       </c>
@@ -2996,13 +3108,16 @@
         <v>81</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>56</v>
+      <c r="L27" t="s">
+        <v>129</v>
       </c>
       <c r="M27" t="s">
         <v>7</v>
@@ -3026,13 +3141,16 @@
         <v>82</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>80</v>
+      </c>
+      <c r="L28" t="s">
+        <v>129</v>
       </c>
       <c r="M28" t="s">
         <v>7</v>
@@ -3056,12 +3174,15 @@
         <v>83</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="K29" s="4"/>
+      <c r="L29" t="s">
+        <v>129</v>
+      </c>
       <c r="M29" t="s">
         <v>7</v>
       </c>
@@ -3084,10 +3205,13 @@
         <v>107</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>108</v>
+      </c>
+      <c r="L30" t="s">
+        <v>129</v>
       </c>
       <c r="M30" t="s">
         <v>7</v>
@@ -3099,7 +3223,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="30">
+    <row ht="30" r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3111,16 +3235,19 @@
         <v>109</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>54</v>
+      <c r="L31" t="s">
+        <v>171</v>
       </c>
       <c r="M31" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -3141,10 +3268,13 @@
         <v>92</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
+      <c r="L32" t="s">
+        <v>129</v>
+      </c>
       <c r="M32" t="s">
         <v>7</v>
       </c>
@@ -3154,11 +3284,6 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="13:13">
-      <c r="M33" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A9:S32"/>
@@ -3167,19 +3292,19 @@
     <mergeCell ref="N8:Q8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1"/>
-    <hyperlink ref="K14" r:id="rId2"/>
-    <hyperlink ref="J20" r:id="rId3"/>
-    <hyperlink ref="K22" r:id="rId4"/>
-    <hyperlink ref="J26" r:id="rId5"/>
-    <hyperlink ref="K28" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="J11"/>
+    <hyperlink r:id="rId2" ref="K14"/>
+    <hyperlink r:id="rId3" ref="J20"/>
+    <hyperlink r:id="rId4" ref="K22"/>
+    <hyperlink r:id="rId5" ref="J26"/>
+    <hyperlink r:id="rId6" ref="K28"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Config!$E$3:$E$187</xm:f>
           </x14:formula1>
@@ -3192,35 +3317,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="25.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="10" max="10" width="25.7109375" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="12" max="12" width="14.85546875" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="13" max="13" width="13.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="29.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="30.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="8" max="8" customWidth="true" style="2" width="28.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="9" max="9" customWidth="true" style="2" width="25.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="10" max="10" customWidth="true" style="2" width="25.7109375" collapsed="true" outlineLevel="1"/>
+    <col min="11" max="11" customWidth="true" style="2" width="19.42578125" collapsed="true" outlineLevel="1"/>
+    <col min="12" max="12" customWidth="true" style="2" width="14.85546875" collapsed="true" outlineLevel="1"/>
+    <col min="13" max="13" customWidth="true" style="2" width="13.5703125" collapsed="true" outlineLevel="1"/>
+    <col min="14" max="17" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1">
+    <row customFormat="1" r="1" s="18" spans="1:20">
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3229,7 +3353,7 @@
       <c r="L1" s="2"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:19" s="18" customFormat="1">
+    <row customFormat="1" r="2" s="18" spans="1:20">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3238,147 +3362,147 @@
       <c r="L2" s="2"/>
       <c r="R2" s="20"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="21">
-        <f>COUNTIF($L$11:$L$599,"Pass")</f>
+        <f>COUNTIF($L$11:$L$600,"Pass")</f>
         <v>0</v>
       </c>
       <c r="N4" s="21">
-        <f>COUNTIF($N$11:N$599,"Pass")</f>
+        <f>COUNTIF($N$11:N$600,"Pass")</f>
         <v>1</v>
       </c>
       <c r="O4" s="21">
-        <f>COUNTIF($O$11:O$599,"Pass")</f>
+        <f>COUNTIF($O$11:O$600,"Pass")</f>
         <v>0</v>
       </c>
       <c r="P4" s="21">
-        <f>COUNTIF($P$11:P$599,"Pass")</f>
+        <f>COUNTIF($P$11:P$600,"Pass")</f>
         <v>0</v>
       </c>
       <c r="Q4" s="21">
-        <f>COUNTIF($Q$11:Q$599,"Pass")</f>
+        <f>COUNTIF($Q$11:Q$600,"Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="21">
-        <f>COUNTIF($L$11:$L$599,"Fail")</f>
+        <f>COUNTIF($L$11:$L$600,"Fail")</f>
         <v>0</v>
       </c>
       <c r="N5" s="21">
-        <f>COUNTIF($N$11:N$599,"Fail")</f>
+        <f>COUNTIF($N$11:N$600,"Fail")</f>
         <v>0</v>
       </c>
       <c r="O5" s="21">
-        <f>COUNTIF($O$11:$O$599,"Fail")</f>
+        <f>COUNTIF($O$11:$O$600,"Fail")</f>
         <v>1</v>
       </c>
       <c r="P5" s="21">
-        <f>COUNTIF($P$11:$P$599,"Fail")</f>
+        <f>COUNTIF($P$11:$P$600,"Fail")</f>
         <v>0</v>
       </c>
       <c r="Q5" s="21">
-        <f>COUNTIF($Q$11:$Q$599,"Fail")</f>
+        <f>COUNTIF($Q$11:$Q$600,"Fail")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="21">
-        <f>COUNTIF($G$11:$G$599,"Yes")/COUNTA($A$11:$A$599)</f>
+        <f>COUNTIF($G$11:$G$600,"Yes")/COUNTA($A$11:$A$600)</f>
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="21">
-        <f>COUNTIF($L$13:$L$599,"Not Test")</f>
+        <f>COUNTIF($L$13:$L$600,"Not Test")</f>
         <v>0</v>
       </c>
       <c r="N6" s="21">
-        <f>COUNTIF($N$11:N$599,"Not Test")</f>
+        <f>COUNTIF($N$11:N$600,"Not Test")</f>
         <v>0</v>
       </c>
       <c r="O6" s="21">
-        <f>COUNTIF($H$12:$H$600,"Not Test")</f>
+        <f>COUNTIF($H$11:$H$600,"Not Test")</f>
         <v>0</v>
       </c>
       <c r="P6" s="21">
-        <f>COUNTIF($P$11:$P$599,"Not Test")</f>
+        <f>COUNTIF($P$11:$P$600,"Not Test")</f>
         <v>1</v>
       </c>
       <c r="Q6" s="21">
-        <f>COUNTIF($Q$11:$Q$599,"Not Test")</f>
+        <f>COUNTIF($Q$11:$Q$600,"Not Test")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="G8" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -3387,33 +3511,33 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row ht="30" r="9" spans="1:20">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1</v>
@@ -3428,33 +3552,33 @@
         <v>4</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3475,35 +3599,41 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="105">
+    <row ht="60" r="11" spans="1:20">
       <c r="A11" s="18" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>128</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L11"/>
       <c r="M11" t="s">
         <v>7</v>
       </c>
@@ -3514,10 +3644,10 @@
         <v>10</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R11" s="19">
         <v>42720</v>
@@ -3526,242 +3656,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="H12" s="2" t="s">
-        <v>79</v>
+      <c r="H12" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L12"/>
+        <v>54</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
       <c r="M12" t="s">
         <v>7</v>
       </c>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:19">
+    <row customFormat="1" r="13" s="2" spans="1:20">
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13"/>
+        <v>184</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
       <c r="M13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row customFormat="1" r="14" s="2" spans="1:20">
       <c r="H14" s="4" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14"/>
+        <v>61</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="23">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
       <c r="M14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row customFormat="1" r="15" s="2" spans="1:20">
       <c r="H15" s="4" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15"/>
+        <v>186</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
       <c r="M15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="H16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>110</v>
-      </c>
+    <row customFormat="1" r="16" s="2" spans="1:20">
       <c r="L16"/>
       <c r="M16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="8:13" ht="30">
-      <c r="H17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>112</v>
-      </c>
+    <row customFormat="1" r="17" s="2" spans="1:20">
       <c r="L17"/>
       <c r="M17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="8:13">
-      <c r="H18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>115</v>
-      </c>
+    <row customFormat="1" r="18" s="2" spans="1:20">
       <c r="L18"/>
       <c r="M18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="8:13" ht="30">
-      <c r="H19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>112</v>
-      </c>
+    <row customFormat="1" r="19" s="2" spans="1:20">
       <c r="L19"/>
       <c r="M19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="8:13">
-      <c r="H20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>119</v>
-      </c>
+    <row customFormat="1" r="20" s="2" spans="1:20">
       <c r="L20"/>
       <c r="M20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="8:13">
-      <c r="H21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>122</v>
-      </c>
+    <row customFormat="1" r="21" s="2" spans="1:20">
       <c r="L21"/>
       <c r="M21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="8:13" ht="30">
-      <c r="H22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>139</v>
-      </c>
+    <row customFormat="1" r="22" s="2" spans="1:20">
       <c r="L22"/>
       <c r="M22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="8:13">
-      <c r="H23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>177</v>
-      </c>
+    <row customFormat="1" ht="409.6" r="23" s="2" spans="1:20">
       <c r="L23"/>
       <c r="M23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="8:13">
-      <c r="H24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="2">
-        <v>3</v>
-      </c>
+    <row customFormat="1" ht="409.6" r="24" s="2" spans="1:20">
       <c r="L24"/>
       <c r="M24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="8:13">
-      <c r="H25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>124</v>
-      </c>
+    <row customFormat="1" ht="409.6" r="25" s="2" spans="1:20">
       <c r="L25"/>
       <c r="M25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="8:13">
-      <c r="H26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row customFormat="1" ht="409.6" r="26" s="2" spans="1:20">
       <c r="L26"/>
       <c r="M26" t="s">
         <v>7</v>
@@ -3773,78 +3810,74 @@
     <mergeCell ref="G8:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="No">
+    <cfRule dxfId="14" operator="containsText" priority="10" text="No" type="containsText">
       <formula>NOT(ISERROR(SEARCH("No",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Yes">
+    <cfRule dxfId="13" operator="containsText" priority="11" text="Yes" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Yes",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="Pass">
+    <cfRule dxfId="12" operator="containsText" priority="25" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="Not Test">
+    <cfRule dxfId="11" operator="containsText" priority="21" text="Not Test" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Not Test",N11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="Fail">
+    <cfRule dxfId="10" operator="containsText" priority="22" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",N11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="Pass">
+    <cfRule dxfId="9" operator="containsText" priority="23" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",N11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:P12">
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="Not Test">
+    <cfRule dxfId="8" operator="containsText" priority="18" text="Not Test" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Not Test",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Fail">
+    <cfRule dxfId="7" operator="containsText" priority="19" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="Pass">
+    <cfRule dxfId="6" operator="containsText" priority="20" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",O11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="Not Test">
+    <cfRule dxfId="5" operator="containsText" priority="12" text="Not Test" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Not Test",Q11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="Fail">
+    <cfRule dxfId="4" operator="containsText" priority="13" text="Fail" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Fail",Q11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="Pass">
+    <cfRule dxfId="3" operator="containsText" priority="14" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",Q11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+  <conditionalFormatting sqref="G13:G14">
+    <cfRule dxfId="2" operator="containsText" priority="4" text="No" type="containsText">
       <formula>NOT(ISERROR(SEARCH("No",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Yes">
+    <cfRule dxfId="1" operator="containsText" priority="5" text="Yes" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Yes",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Pass">
+    <cfRule dxfId="0" operator="containsText" priority="6" text="Pass" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Pass",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11:Q12">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N11:Q12" type="list">
       <formula1>"Fail, Pass,Not Test"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G11:G14" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1"/>
-    <hyperlink ref="K14" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Config!$E$3:$E$187</xm:f>
           </x14:formula1>
